--- a/Data/Output/datos_filtrados.xlsx
+++ b/Data/Output/datos_filtrados.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,266 +466,152 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>11012024</t>
-        </is>
+      <c r="A2" t="n">
+        <v>11012024</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALEJANDRAS FASHION INC</t>
+          <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>35783.00</t>
+          <t>35783,00</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4438.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
+          <t>4438,24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>35783,00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4438,24</t>
+        </is>
+      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11012024 </t>
-        </is>
+      <c r="A3" t="n">
+        <v>11082024</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr"/>
-      <c r="D3" t="inlineStr"/>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>36233,65</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4416,39</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>35,783.00</t>
+          <t>36233,65</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4,438.24</t>
+          <t>4416,39</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>11082024</t>
-        </is>
+      <c r="A4" t="n">
+        <v>11152024</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALEJANDRAS FASHION INC</t>
+          <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>36233.65</t>
+          <t>38771,93</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4416.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr"/>
+          <t>4793,73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>38771,93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4793,73</t>
+        </is>
+      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11082024 </t>
-        </is>
+      <c r="A5" t="n">
+        <v>11222024</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr"/>
-      <c r="D5" t="inlineStr"/>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>37915,74</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4702,90</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>36,233.65</t>
+          <t>37915,74</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4,416.39</t>
+          <t>4702,90</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>11152024</t>
-        </is>
+      <c r="A6" t="n">
+        <v>11292024</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALEJANDRAS FASHION INC</t>
+          <t>ALEJANDRA S FASHIÓON INC</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>38771.93</t>
+          <t>41179,84</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4793.73</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr"/>
-      <c r="F6" t="inlineStr"/>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11152024 </t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>ALEJANDRA'S FASHIOÓN, INC.</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr"/>
-      <c r="D7" t="inlineStr"/>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4,793.73</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11152024  </t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr"/>
-      <c r="D8" t="inlineStr"/>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>38,771.93</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>11222024</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>ALEJANDRAS FASHION INC</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>37915.74</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4702.90</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr"/>
-      <c r="F9" t="inlineStr"/>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11222024 </t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr"/>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>37,915.74</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>4,702.90</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>11292024</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>ALEJANDRAS FASHION INC</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>41179.84</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>5151.17</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr"/>
-      <c r="F11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">11292024 </t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr"/>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>41,179.84</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>5,151.26</t>
+          <t>5151,17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>41179,84</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5151,26</t>
         </is>
       </c>
     </row>

--- a/Data/Output/datos_filtrados.xlsx
+++ b/Data/Output/datos_filtrados.xlsx
@@ -471,27 +471,27 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
+          <t>AVINA PRODUCE TIN: xxxxx8949</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>35783,00</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>4438,24</t>
+          <t>72,92</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>35783,00</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4438,24</t>
+          <t>72,92</t>
         </is>
       </c>
     </row>
@@ -501,27 +501,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
+          <t>AVINA PRODUCE TIN: xxxxx8949</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>36233,65</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>4416,39</t>
+          <t>72,92</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>36233,65</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4416,39</t>
+          <t>72,92</t>
         </is>
       </c>
     </row>
@@ -531,27 +531,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
+          <t>AVINA PRODUCE TIN: xxxxx8949</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>38771,93</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>4793,73</t>
+          <t>72,92</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>38771,93</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4793,73</t>
+          <t>72,92</t>
         </is>
       </c>
     </row>
@@ -561,27 +561,27 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
+          <t>AVINA PRODUCE TIN: xxxxx8949</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>37915,74</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4702,90</t>
+          <t>72,92</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>37915,74</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4702,90</t>
+          <t>72,92</t>
         </is>
       </c>
     </row>
@@ -591,27 +591,27 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ALEJANDRA S FASHIÓON INC</t>
+          <t>AVINA PRODUCE</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>41179,84</t>
+          <t>546,52</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5151,17</t>
+          <t>72,92</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>41179,84</t>
+          <t>1426,00</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5151,26</t>
+          <t>72,92</t>
         </is>
       </c>
     </row>
